--- a/docs/biosample/packages/ddbj_biosample_definition_table.xlsx
+++ b/docs/biosample/packages/ddbj_biosample_definition_table.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\github\pub\docs\biosample\packages\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" tabRatio="1000"/>
+    <workbookView xWindow="1360" yWindow="200" windowWidth="28800" windowHeight="19760" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="package-attribute" sheetId="8" r:id="rId1"/>
     <sheet name="attribute" sheetId="5" r:id="rId2"/>
     <sheet name="package" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32235" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32235" uniqueCount="1195">
   <si>
     <t>Generic</t>
   </si>
@@ -3563,276 +3561,279 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MIMS: metagenome/environmental, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, water; version 1.0</t>
+    <t>MIMS: metagenome/environmental, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, water; version 1.1</t>
   </si>
 </sst>
 </file>
@@ -4188,7 +4189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4198,14 +4199,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LX90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="20.85546875" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:336" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:336">
       <c r="A1" s="3" t="s">
         <v>1103</v>
       </c>
@@ -5215,12 +5218,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:336">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1100</v>
@@ -5235,7 +5238,7 @@
         <v>1100</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1101</v>
@@ -6225,12 +6228,12 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="3" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:336">
       <c r="A3" t="s">
         <v>992</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C3" t="s">
         <v>1100</v>
@@ -6244,8 +6247,8 @@
       <c r="F3" t="s">
         <v>1100</v>
       </c>
-      <c r="G3" t="s">
-        <v>1100</v>
+      <c r="G3" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H3" t="s">
         <v>1101</v>
@@ -7235,7 +7238,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:336">
       <c r="A4" t="s">
         <v>993</v>
       </c>
@@ -7254,8 +7257,8 @@
       <c r="F4" t="s">
         <v>1100</v>
       </c>
-      <c r="G4" t="s">
-        <v>1100</v>
+      <c r="G4" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H4" t="s">
         <v>1101</v>
@@ -8245,7 +8248,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="5" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:336">
       <c r="A5" t="s">
         <v>994</v>
       </c>
@@ -8264,8 +8267,8 @@
       <c r="F5" t="s">
         <v>1100</v>
       </c>
-      <c r="G5" t="s">
-        <v>1100</v>
+      <c r="G5" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H5" t="s">
         <v>1101</v>
@@ -9255,7 +9258,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="6" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:336">
       <c r="A6" t="s">
         <v>995</v>
       </c>
@@ -9274,8 +9277,8 @@
       <c r="F6" t="s">
         <v>1100</v>
       </c>
-      <c r="G6" t="s">
-        <v>1100</v>
+      <c r="G6" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H6" t="s">
         <v>1101</v>
@@ -10265,7 +10268,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="7" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:336">
       <c r="A7" t="s">
         <v>996</v>
       </c>
@@ -10284,8 +10287,8 @@
       <c r="F7" t="s">
         <v>1100</v>
       </c>
-      <c r="G7" t="s">
-        <v>1100</v>
+      <c r="G7" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H7" t="s">
         <v>1101</v>
@@ -11275,7 +11278,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="8" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:336">
       <c r="A8" t="s">
         <v>997</v>
       </c>
@@ -11294,8 +11297,8 @@
       <c r="F8" t="s">
         <v>1100</v>
       </c>
-      <c r="G8" t="s">
-        <v>1100</v>
+      <c r="G8" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H8" t="s">
         <v>1101</v>
@@ -12285,7 +12288,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="9" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:336">
       <c r="A9" t="s">
         <v>998</v>
       </c>
@@ -12304,8 +12307,8 @@
       <c r="F9" t="s">
         <v>1100</v>
       </c>
-      <c r="G9" t="s">
-        <v>1100</v>
+      <c r="G9" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H9" t="s">
         <v>1101</v>
@@ -13295,7 +13298,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="10" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:336">
       <c r="A10" t="s">
         <v>999</v>
       </c>
@@ -13314,8 +13317,8 @@
       <c r="F10" t="s">
         <v>1100</v>
       </c>
-      <c r="G10" t="s">
-        <v>1100</v>
+      <c r="G10" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H10" t="s">
         <v>1101</v>
@@ -14305,7 +14308,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="11" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:336">
       <c r="A11" t="s">
         <v>1000</v>
       </c>
@@ -14324,8 +14327,8 @@
       <c r="F11" t="s">
         <v>1100</v>
       </c>
-      <c r="G11" t="s">
-        <v>1100</v>
+      <c r="G11" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H11" t="s">
         <v>1101</v>
@@ -15315,7 +15318,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="12" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:336">
       <c r="A12" t="s">
         <v>1001</v>
       </c>
@@ -15334,8 +15337,8 @@
       <c r="F12" t="s">
         <v>1100</v>
       </c>
-      <c r="G12" t="s">
-        <v>1100</v>
+      <c r="G12" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H12" t="s">
         <v>1101</v>
@@ -16325,7 +16328,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="13" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:336">
       <c r="A13" t="s">
         <v>1002</v>
       </c>
@@ -16344,8 +16347,8 @@
       <c r="F13" t="s">
         <v>1100</v>
       </c>
-      <c r="G13" t="s">
-        <v>1100</v>
+      <c r="G13" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H13" t="s">
         <v>1101</v>
@@ -17335,7 +17338,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:336">
       <c r="A14" t="s">
         <v>1003</v>
       </c>
@@ -17354,8 +17357,8 @@
       <c r="F14" t="s">
         <v>1100</v>
       </c>
-      <c r="G14" t="s">
-        <v>1100</v>
+      <c r="G14" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H14" t="s">
         <v>1101</v>
@@ -18345,7 +18348,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="15" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:336">
       <c r="A15" t="s">
         <v>1004</v>
       </c>
@@ -18364,8 +18367,8 @@
       <c r="F15" t="s">
         <v>1100</v>
       </c>
-      <c r="G15" t="s">
-        <v>1100</v>
+      <c r="G15" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H15" t="s">
         <v>1101</v>
@@ -19355,7 +19358,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="16" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:336">
       <c r="A16" t="s">
         <v>1005</v>
       </c>
@@ -19374,8 +19377,8 @@
       <c r="F16" t="s">
         <v>1100</v>
       </c>
-      <c r="G16" t="s">
-        <v>1100</v>
+      <c r="G16" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H16" t="s">
         <v>1101</v>
@@ -20365,7 +20368,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="17" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:336">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -20385,7 +20388,7 @@
         <v>1100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>1101</v>
@@ -21375,7 +21378,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="18" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:336">
       <c r="A18" t="s">
         <v>1006</v>
       </c>
@@ -21394,8 +21397,8 @@
       <c r="F18" t="s">
         <v>1100</v>
       </c>
-      <c r="G18" t="s">
-        <v>1100</v>
+      <c r="G18" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H18" t="s">
         <v>1101</v>
@@ -22385,7 +22388,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="19" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:336">
       <c r="A19" t="s">
         <v>1007</v>
       </c>
@@ -22404,8 +22407,8 @@
       <c r="F19" t="s">
         <v>1100</v>
       </c>
-      <c r="G19" t="s">
-        <v>1100</v>
+      <c r="G19" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H19" t="s">
         <v>1101</v>
@@ -23395,7 +23398,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="20" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:336">
       <c r="A20" t="s">
         <v>1008</v>
       </c>
@@ -23414,8 +23417,8 @@
       <c r="F20" t="s">
         <v>1100</v>
       </c>
-      <c r="G20" t="s">
-        <v>1100</v>
+      <c r="G20" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H20" t="s">
         <v>1101</v>
@@ -24405,7 +24408,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="21" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:336">
       <c r="A21" t="s">
         <v>1009</v>
       </c>
@@ -24424,8 +24427,8 @@
       <c r="F21" t="s">
         <v>1100</v>
       </c>
-      <c r="G21" t="s">
-        <v>1100</v>
+      <c r="G21" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H21" t="s">
         <v>1101</v>
@@ -25415,7 +25418,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="22" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:336">
       <c r="A22" t="s">
         <v>1010</v>
       </c>
@@ -25434,8 +25437,8 @@
       <c r="F22" t="s">
         <v>1100</v>
       </c>
-      <c r="G22" t="s">
-        <v>1100</v>
+      <c r="G22" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H22" t="s">
         <v>1101</v>
@@ -26425,7 +26428,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="23" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:336">
       <c r="A23" t="s">
         <v>1011</v>
       </c>
@@ -26444,8 +26447,8 @@
       <c r="F23" t="s">
         <v>1100</v>
       </c>
-      <c r="G23" t="s">
-        <v>1100</v>
+      <c r="G23" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H23" t="s">
         <v>1101</v>
@@ -27435,7 +27438,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="24" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:336">
       <c r="A24" t="s">
         <v>1012</v>
       </c>
@@ -27454,8 +27457,8 @@
       <c r="F24" t="s">
         <v>1100</v>
       </c>
-      <c r="G24" t="s">
-        <v>1100</v>
+      <c r="G24" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H24" t="s">
         <v>1101</v>
@@ -28445,7 +28448,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:336">
       <c r="A25" t="s">
         <v>1013</v>
       </c>
@@ -28464,8 +28467,8 @@
       <c r="F25" t="s">
         <v>1100</v>
       </c>
-      <c r="G25" t="s">
-        <v>1100</v>
+      <c r="G25" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H25" t="s">
         <v>1101</v>
@@ -29455,7 +29458,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="26" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:336">
       <c r="A26" t="s">
         <v>1014</v>
       </c>
@@ -29474,8 +29477,8 @@
       <c r="F26" t="s">
         <v>1100</v>
       </c>
-      <c r="G26" t="s">
-        <v>1100</v>
+      <c r="G26" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H26" t="s">
         <v>1101</v>
@@ -30465,7 +30468,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="27" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:336">
       <c r="A27" t="s">
         <v>1015</v>
       </c>
@@ -30484,8 +30487,8 @@
       <c r="F27" t="s">
         <v>1100</v>
       </c>
-      <c r="G27" t="s">
-        <v>1100</v>
+      <c r="G27" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H27" t="s">
         <v>1101</v>
@@ -31475,7 +31478,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="28" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:336">
       <c r="A28" t="s">
         <v>1016</v>
       </c>
@@ -31494,8 +31497,8 @@
       <c r="F28" t="s">
         <v>1100</v>
       </c>
-      <c r="G28" t="s">
-        <v>1100</v>
+      <c r="G28" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H28" t="s">
         <v>1101</v>
@@ -32485,7 +32488,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="29" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:336">
       <c r="A29" t="s">
         <v>1017</v>
       </c>
@@ -32504,8 +32507,8 @@
       <c r="F29" t="s">
         <v>1100</v>
       </c>
-      <c r="G29" t="s">
-        <v>1100</v>
+      <c r="G29" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H29" t="s">
         <v>1101</v>
@@ -33495,7 +33498,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="30" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:336">
       <c r="A30" t="s">
         <v>1018</v>
       </c>
@@ -33514,8 +33517,8 @@
       <c r="F30" t="s">
         <v>1100</v>
       </c>
-      <c r="G30" t="s">
-        <v>1100</v>
+      <c r="G30" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H30" t="s">
         <v>1101</v>
@@ -34505,7 +34508,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="31" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:336">
       <c r="A31" t="s">
         <v>1019</v>
       </c>
@@ -34524,8 +34527,8 @@
       <c r="F31" t="s">
         <v>1100</v>
       </c>
-      <c r="G31" t="s">
-        <v>1100</v>
+      <c r="G31" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H31" t="s">
         <v>1101</v>
@@ -35515,7 +35518,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="32" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:336">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -35535,7 +35538,7 @@
         <v>1100</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>1101</v>
@@ -36525,7 +36528,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="33" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:336">
       <c r="A33" t="s">
         <v>1020</v>
       </c>
@@ -36544,8 +36547,8 @@
       <c r="F33" t="s">
         <v>1100</v>
       </c>
-      <c r="G33" t="s">
-        <v>1100</v>
+      <c r="G33" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H33" t="s">
         <v>1101</v>
@@ -37535,7 +37538,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="34" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:336">
       <c r="A34" t="s">
         <v>1021</v>
       </c>
@@ -37554,8 +37557,8 @@
       <c r="F34" t="s">
         <v>1100</v>
       </c>
-      <c r="G34" t="s">
-        <v>1100</v>
+      <c r="G34" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H34" t="s">
         <v>1101</v>
@@ -38545,7 +38548,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="35" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:336">
       <c r="A35" t="s">
         <v>1022</v>
       </c>
@@ -38564,8 +38567,8 @@
       <c r="F35" t="s">
         <v>1100</v>
       </c>
-      <c r="G35" t="s">
-        <v>1100</v>
+      <c r="G35" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H35" t="s">
         <v>1101</v>
@@ -39555,7 +39558,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="36" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:336">
       <c r="A36" t="s">
         <v>1023</v>
       </c>
@@ -39574,8 +39577,8 @@
       <c r="F36" t="s">
         <v>1100</v>
       </c>
-      <c r="G36" t="s">
-        <v>1100</v>
+      <c r="G36" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H36" t="s">
         <v>1101</v>
@@ -40565,7 +40568,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="37" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:336">
       <c r="A37" t="s">
         <v>1024</v>
       </c>
@@ -40584,8 +40587,8 @@
       <c r="F37" t="s">
         <v>1100</v>
       </c>
-      <c r="G37" t="s">
-        <v>1100</v>
+      <c r="G37" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H37" t="s">
         <v>1101</v>
@@ -41575,7 +41578,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="38" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:336">
       <c r="A38" t="s">
         <v>1025</v>
       </c>
@@ -41594,8 +41597,8 @@
       <c r="F38" t="s">
         <v>1100</v>
       </c>
-      <c r="G38" t="s">
-        <v>1100</v>
+      <c r="G38" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H38" t="s">
         <v>1101</v>
@@ -42585,7 +42588,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="39" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:336">
       <c r="A39" t="s">
         <v>1026</v>
       </c>
@@ -42604,8 +42607,8 @@
       <c r="F39" t="s">
         <v>1100</v>
       </c>
-      <c r="G39" t="s">
-        <v>1100</v>
+      <c r="G39" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H39" t="s">
         <v>1101</v>
@@ -43595,7 +43598,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="40" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:336">
       <c r="A40" t="s">
         <v>1027</v>
       </c>
@@ -43614,8 +43617,8 @@
       <c r="F40" t="s">
         <v>1100</v>
       </c>
-      <c r="G40" t="s">
-        <v>1100</v>
+      <c r="G40" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H40" t="s">
         <v>1101</v>
@@ -44605,7 +44608,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="41" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:336">
       <c r="A41" t="s">
         <v>1028</v>
       </c>
@@ -44624,8 +44627,8 @@
       <c r="F41" t="s">
         <v>1100</v>
       </c>
-      <c r="G41" t="s">
-        <v>1100</v>
+      <c r="G41" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H41" t="s">
         <v>1101</v>
@@ -45615,7 +45618,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="42" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:336">
       <c r="A42" t="s">
         <v>1029</v>
       </c>
@@ -45634,8 +45637,8 @@
       <c r="F42" t="s">
         <v>1100</v>
       </c>
-      <c r="G42" t="s">
-        <v>1100</v>
+      <c r="G42" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H42" t="s">
         <v>1101</v>
@@ -46625,7 +46628,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="43" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:336">
       <c r="A43" t="s">
         <v>1030</v>
       </c>
@@ -46644,8 +46647,8 @@
       <c r="F43" t="s">
         <v>1100</v>
       </c>
-      <c r="G43" t="s">
-        <v>1100</v>
+      <c r="G43" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H43" t="s">
         <v>1101</v>
@@ -47635,7 +47638,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="44" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:336">
       <c r="A44" t="s">
         <v>1031</v>
       </c>
@@ -47654,8 +47657,8 @@
       <c r="F44" t="s">
         <v>1100</v>
       </c>
-      <c r="G44" t="s">
-        <v>1100</v>
+      <c r="G44" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H44" t="s">
         <v>1101</v>
@@ -48645,7 +48648,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="45" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:336">
       <c r="A45" t="s">
         <v>1032</v>
       </c>
@@ -48664,8 +48667,8 @@
       <c r="F45" t="s">
         <v>1100</v>
       </c>
-      <c r="G45" t="s">
-        <v>1100</v>
+      <c r="G45" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H45" t="s">
         <v>1101</v>
@@ -49655,7 +49658,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="46" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:336">
       <c r="A46" t="s">
         <v>1033</v>
       </c>
@@ -49674,8 +49677,8 @@
       <c r="F46" t="s">
         <v>1100</v>
       </c>
-      <c r="G46" t="s">
-        <v>1100</v>
+      <c r="G46" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H46" t="s">
         <v>1101</v>
@@ -50665,7 +50668,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="47" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:336">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -50685,7 +50688,7 @@
         <v>1100</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>1101</v>
@@ -51675,7 +51678,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="48" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:336">
       <c r="A48" t="s">
         <v>1034</v>
       </c>
@@ -51694,8 +51697,8 @@
       <c r="F48" t="s">
         <v>1100</v>
       </c>
-      <c r="G48" t="s">
-        <v>1100</v>
+      <c r="G48" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H48" t="s">
         <v>1101</v>
@@ -52685,7 +52688,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="49" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:336">
       <c r="A49" t="s">
         <v>1035</v>
       </c>
@@ -52704,8 +52707,8 @@
       <c r="F49" t="s">
         <v>1100</v>
       </c>
-      <c r="G49" t="s">
-        <v>1100</v>
+      <c r="G49" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H49" t="s">
         <v>1101</v>
@@ -53695,7 +53698,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="50" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:336">
       <c r="A50" t="s">
         <v>1036</v>
       </c>
@@ -53714,8 +53717,8 @@
       <c r="F50" t="s">
         <v>1100</v>
       </c>
-      <c r="G50" t="s">
-        <v>1100</v>
+      <c r="G50" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H50" t="s">
         <v>1101</v>
@@ -54705,7 +54708,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="51" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:336">
       <c r="A51" t="s">
         <v>1037</v>
       </c>
@@ -54724,8 +54727,8 @@
       <c r="F51" t="s">
         <v>1100</v>
       </c>
-      <c r="G51" t="s">
-        <v>1100</v>
+      <c r="G51" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H51" t="s">
         <v>1101</v>
@@ -55715,7 +55718,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="52" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:336">
       <c r="A52" t="s">
         <v>1038</v>
       </c>
@@ -55734,8 +55737,8 @@
       <c r="F52" t="s">
         <v>1100</v>
       </c>
-      <c r="G52" t="s">
-        <v>1100</v>
+      <c r="G52" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H52" t="s">
         <v>1101</v>
@@ -56725,7 +56728,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="53" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:336">
       <c r="A53" t="s">
         <v>1039</v>
       </c>
@@ -56744,8 +56747,8 @@
       <c r="F53" t="s">
         <v>1100</v>
       </c>
-      <c r="G53" t="s">
-        <v>1100</v>
+      <c r="G53" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H53" t="s">
         <v>1101</v>
@@ -57735,7 +57738,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="54" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:336">
       <c r="A54" t="s">
         <v>1040</v>
       </c>
@@ -57754,8 +57757,8 @@
       <c r="F54" t="s">
         <v>1100</v>
       </c>
-      <c r="G54" t="s">
-        <v>1100</v>
+      <c r="G54" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H54" t="s">
         <v>1101</v>
@@ -58745,7 +58748,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="55" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:336">
       <c r="A55" t="s">
         <v>1041</v>
       </c>
@@ -58764,8 +58767,8 @@
       <c r="F55" t="s">
         <v>1100</v>
       </c>
-      <c r="G55" t="s">
-        <v>1100</v>
+      <c r="G55" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H55" t="s">
         <v>1101</v>
@@ -59755,7 +59758,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="56" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:336">
       <c r="A56" t="s">
         <v>1042</v>
       </c>
@@ -59774,8 +59777,8 @@
       <c r="F56" t="s">
         <v>1100</v>
       </c>
-      <c r="G56" t="s">
-        <v>1100</v>
+      <c r="G56" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H56" t="s">
         <v>1101</v>
@@ -60765,7 +60768,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="57" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:336">
       <c r="A57" t="s">
         <v>1043</v>
       </c>
@@ -60784,8 +60787,8 @@
       <c r="F57" t="s">
         <v>1100</v>
       </c>
-      <c r="G57" t="s">
-        <v>1100</v>
+      <c r="G57" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H57" t="s">
         <v>1101</v>
@@ -61775,7 +61778,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="58" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:336">
       <c r="A58" t="s">
         <v>1044</v>
       </c>
@@ -61794,8 +61797,8 @@
       <c r="F58" t="s">
         <v>1100</v>
       </c>
-      <c r="G58" t="s">
-        <v>1100</v>
+      <c r="G58" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H58" t="s">
         <v>1101</v>
@@ -62785,7 +62788,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="59" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:336">
       <c r="A59" t="s">
         <v>1045</v>
       </c>
@@ -62804,8 +62807,8 @@
       <c r="F59" t="s">
         <v>1100</v>
       </c>
-      <c r="G59" t="s">
-        <v>1100</v>
+      <c r="G59" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H59" t="s">
         <v>1101</v>
@@ -63795,7 +63798,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="60" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:336">
       <c r="A60" t="s">
         <v>1046</v>
       </c>
@@ -63814,8 +63817,8 @@
       <c r="F60" t="s">
         <v>1100</v>
       </c>
-      <c r="G60" t="s">
-        <v>1100</v>
+      <c r="G60" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H60" t="s">
         <v>1101</v>
@@ -64805,7 +64808,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="61" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:336">
       <c r="A61" t="s">
         <v>1047</v>
       </c>
@@ -64824,8 +64827,8 @@
       <c r="F61" t="s">
         <v>1100</v>
       </c>
-      <c r="G61" t="s">
-        <v>1100</v>
+      <c r="G61" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H61" t="s">
         <v>1101</v>
@@ -65815,7 +65818,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="62" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:336">
       <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
@@ -65835,7 +65838,7 @@
         <v>1100</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>1101</v>
@@ -66825,7 +66828,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="63" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:336">
       <c r="A63" t="s">
         <v>1048</v>
       </c>
@@ -66844,8 +66847,8 @@
       <c r="F63" t="s">
         <v>1100</v>
       </c>
-      <c r="G63" t="s">
-        <v>1100</v>
+      <c r="G63" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H63" t="s">
         <v>1101</v>
@@ -67835,7 +67838,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="64" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:336">
       <c r="A64" t="s">
         <v>1049</v>
       </c>
@@ -67854,8 +67857,8 @@
       <c r="F64" t="s">
         <v>1100</v>
       </c>
-      <c r="G64" t="s">
-        <v>1100</v>
+      <c r="G64" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H64" t="s">
         <v>1101</v>
@@ -68845,7 +68848,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="65" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:336">
       <c r="A65" t="s">
         <v>1050</v>
       </c>
@@ -68864,8 +68867,8 @@
       <c r="F65" t="s">
         <v>1100</v>
       </c>
-      <c r="G65" t="s">
-        <v>1100</v>
+      <c r="G65" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H65" t="s">
         <v>1101</v>
@@ -69855,7 +69858,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="66" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:336">
       <c r="A66" t="s">
         <v>1051</v>
       </c>
@@ -69874,8 +69877,8 @@
       <c r="F66" t="s">
         <v>1100</v>
       </c>
-      <c r="G66" t="s">
-        <v>1100</v>
+      <c r="G66" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H66" t="s">
         <v>1101</v>
@@ -70865,7 +70868,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="67" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:336">
       <c r="A67" t="s">
         <v>1052</v>
       </c>
@@ -70884,8 +70887,8 @@
       <c r="F67" t="s">
         <v>1100</v>
       </c>
-      <c r="G67" t="s">
-        <v>1100</v>
+      <c r="G67" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H67" t="s">
         <v>1101</v>
@@ -71875,7 +71878,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="68" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:336">
       <c r="A68" t="s">
         <v>1053</v>
       </c>
@@ -71894,8 +71897,8 @@
       <c r="F68" t="s">
         <v>1100</v>
       </c>
-      <c r="G68" t="s">
-        <v>1100</v>
+      <c r="G68" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H68" t="s">
         <v>1101</v>
@@ -72885,7 +72888,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="69" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:336">
       <c r="A69" t="s">
         <v>1054</v>
       </c>
@@ -72904,8 +72907,8 @@
       <c r="F69" t="s">
         <v>1100</v>
       </c>
-      <c r="G69" t="s">
-        <v>1100</v>
+      <c r="G69" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H69" t="s">
         <v>1101</v>
@@ -73895,7 +73898,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="70" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:336">
       <c r="A70" t="s">
         <v>1055</v>
       </c>
@@ -73914,8 +73917,8 @@
       <c r="F70" t="s">
         <v>1100</v>
       </c>
-      <c r="G70" t="s">
-        <v>1100</v>
+      <c r="G70" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H70" t="s">
         <v>1101</v>
@@ -74905,7 +74908,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="71" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:336">
       <c r="A71" t="s">
         <v>1056</v>
       </c>
@@ -74924,8 +74927,8 @@
       <c r="F71" t="s">
         <v>1100</v>
       </c>
-      <c r="G71" t="s">
-        <v>1100</v>
+      <c r="G71" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H71" t="s">
         <v>1101</v>
@@ -75915,7 +75918,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="72" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:336">
       <c r="A72" t="s">
         <v>1057</v>
       </c>
@@ -75934,8 +75937,8 @@
       <c r="F72" t="s">
         <v>1100</v>
       </c>
-      <c r="G72" t="s">
-        <v>1100</v>
+      <c r="G72" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H72" t="s">
         <v>1101</v>
@@ -76925,7 +76928,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="73" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:336">
       <c r="A73" t="s">
         <v>1058</v>
       </c>
@@ -76944,8 +76947,8 @@
       <c r="F73" t="s">
         <v>1100</v>
       </c>
-      <c r="G73" t="s">
-        <v>1100</v>
+      <c r="G73" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H73" t="s">
         <v>1101</v>
@@ -77935,7 +77938,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="74" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:336">
       <c r="A74" t="s">
         <v>1059</v>
       </c>
@@ -77954,8 +77957,8 @@
       <c r="F74" t="s">
         <v>1100</v>
       </c>
-      <c r="G74" t="s">
-        <v>1100</v>
+      <c r="G74" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H74" t="s">
         <v>1101</v>
@@ -78945,7 +78948,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="75" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:336">
       <c r="A75" t="s">
         <v>1060</v>
       </c>
@@ -78964,8 +78967,8 @@
       <c r="F75" t="s">
         <v>1100</v>
       </c>
-      <c r="G75" t="s">
-        <v>1100</v>
+      <c r="G75" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H75" t="s">
         <v>1101</v>
@@ -79955,7 +79958,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="76" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:336">
       <c r="A76" t="s">
         <v>1061</v>
       </c>
@@ -79974,8 +79977,8 @@
       <c r="F76" t="s">
         <v>1100</v>
       </c>
-      <c r="G76" t="s">
-        <v>1100</v>
+      <c r="G76" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H76" t="s">
         <v>1101</v>
@@ -80965,7 +80968,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="77" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:336">
       <c r="A77" t="s">
         <v>1062</v>
       </c>
@@ -80984,8 +80987,8 @@
       <c r="F77" t="s">
         <v>1100</v>
       </c>
-      <c r="G77" t="s">
-        <v>1100</v>
+      <c r="G77" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H77" t="s">
         <v>1101</v>
@@ -81975,7 +81978,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="78" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:336">
       <c r="A78" t="s">
         <v>1063</v>
       </c>
@@ -81994,8 +81997,8 @@
       <c r="F78" t="s">
         <v>1100</v>
       </c>
-      <c r="G78" t="s">
-        <v>1100</v>
+      <c r="G78" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H78" t="s">
         <v>1101</v>
@@ -82985,7 +82988,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="79" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:336">
       <c r="A79" t="s">
         <v>1064</v>
       </c>
@@ -83004,8 +83007,8 @@
       <c r="F79" t="s">
         <v>1100</v>
       </c>
-      <c r="G79" t="s">
-        <v>1100</v>
+      <c r="G79" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H79" t="s">
         <v>1101</v>
@@ -83995,7 +83998,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="80" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:336">
       <c r="A80" t="s">
         <v>1065</v>
       </c>
@@ -84014,8 +84017,8 @@
       <c r="F80" t="s">
         <v>1100</v>
       </c>
-      <c r="G80" t="s">
-        <v>1100</v>
+      <c r="G80" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H80" t="s">
         <v>1101</v>
@@ -85005,7 +85008,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="81" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:336">
       <c r="A81" t="s">
         <v>1066</v>
       </c>
@@ -85024,8 +85027,8 @@
       <c r="F81" t="s">
         <v>1100</v>
       </c>
-      <c r="G81" t="s">
-        <v>1100</v>
+      <c r="G81" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H81" t="s">
         <v>1101</v>
@@ -86015,7 +86018,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="82" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:336">
       <c r="A82" t="s">
         <v>1067</v>
       </c>
@@ -86034,8 +86037,8 @@
       <c r="F82" t="s">
         <v>1100</v>
       </c>
-      <c r="G82" t="s">
-        <v>1100</v>
+      <c r="G82" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H82" t="s">
         <v>1101</v>
@@ -87025,7 +87028,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="83" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:336">
       <c r="A83" t="s">
         <v>1068</v>
       </c>
@@ -87044,8 +87047,8 @@
       <c r="F83" t="s">
         <v>1100</v>
       </c>
-      <c r="G83" t="s">
-        <v>1100</v>
+      <c r="G83" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H83" t="s">
         <v>1101</v>
@@ -88035,7 +88038,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="84" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:336">
       <c r="A84" t="s">
         <v>1069</v>
       </c>
@@ -88054,8 +88057,8 @@
       <c r="F84" t="s">
         <v>1100</v>
       </c>
-      <c r="G84" t="s">
-        <v>1100</v>
+      <c r="G84" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H84" t="s">
         <v>1101</v>
@@ -89045,7 +89048,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="85" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:336">
       <c r="A85" t="s">
         <v>1070</v>
       </c>
@@ -89064,8 +89067,8 @@
       <c r="F85" t="s">
         <v>1100</v>
       </c>
-      <c r="G85" t="s">
-        <v>1100</v>
+      <c r="G85" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H85" t="s">
         <v>1101</v>
@@ -90055,7 +90058,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="86" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:336">
       <c r="A86" t="s">
         <v>1071</v>
       </c>
@@ -90074,8 +90077,8 @@
       <c r="F86" t="s">
         <v>1100</v>
       </c>
-      <c r="G86" t="s">
-        <v>1100</v>
+      <c r="G86" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H86" t="s">
         <v>1101</v>
@@ -91065,7 +91068,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="87" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:336">
       <c r="A87" t="s">
         <v>1072</v>
       </c>
@@ -91084,8 +91087,8 @@
       <c r="F87" t="s">
         <v>1100</v>
       </c>
-      <c r="G87" t="s">
-        <v>1100</v>
+      <c r="G87" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H87" t="s">
         <v>1101</v>
@@ -92075,7 +92078,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="88" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:336">
       <c r="A88" t="s">
         <v>1073</v>
       </c>
@@ -92094,8 +92097,8 @@
       <c r="F88" t="s">
         <v>1100</v>
       </c>
-      <c r="G88" t="s">
-        <v>1100</v>
+      <c r="G88" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H88" t="s">
         <v>1101</v>
@@ -93085,7 +93088,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="89" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:336">
       <c r="A89" t="s">
         <v>1074</v>
       </c>
@@ -93104,8 +93107,8 @@
       <c r="F89" t="s">
         <v>1100</v>
       </c>
-      <c r="G89" t="s">
-        <v>1100</v>
+      <c r="G89" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H89" t="s">
         <v>1101</v>
@@ -94095,7 +94098,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="90" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:336">
       <c r="A90" t="s">
         <v>1075</v>
       </c>
@@ -94114,8 +94117,8 @@
       <c r="F90" t="s">
         <v>1100</v>
       </c>
-      <c r="G90" t="s">
-        <v>1100</v>
+      <c r="G90" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="H90" t="s">
         <v>1101</v>
@@ -95108,7 +95111,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -95118,15 +95125,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="22.140625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>942</v>
       </c>
@@ -95146,7 +95153,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>431</v>
       </c>
@@ -95160,7 +95167,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>432</v>
       </c>
@@ -95174,7 +95181,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -95188,7 +95195,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -95202,7 +95209,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>435</v>
       </c>
@@ -95216,7 +95223,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>436</v>
       </c>
@@ -95230,7 +95237,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -95244,7 +95251,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -95258,7 +95265,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -95272,7 +95279,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -95286,7 +95293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -95300,7 +95307,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -95314,7 +95321,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>443</v>
       </c>
@@ -95328,7 +95335,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -95345,7 +95352,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -95362,7 +95369,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>447</v>
       </c>
@@ -95379,7 +95386,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -95396,7 +95403,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -95413,7 +95420,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -95430,7 +95437,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -95447,7 +95454,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -95464,7 +95471,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -95481,7 +95488,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -95498,7 +95505,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -95515,7 +95522,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -95532,7 +95539,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -95549,7 +95556,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -95563,7 +95570,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -95577,7 +95584,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -95591,7 +95598,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -95608,7 +95615,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>466</v>
       </c>
@@ -95625,7 +95632,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -95642,7 +95649,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -95656,7 +95663,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -95670,7 +95677,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -95684,7 +95691,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -95698,7 +95705,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -95712,7 +95719,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>469</v>
       </c>
@@ -95726,7 +95733,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -95740,7 +95747,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -95754,7 +95761,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>470</v>
       </c>
@@ -95771,7 +95778,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -95788,7 +95795,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>471</v>
       </c>
@@ -95805,7 +95812,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>472</v>
       </c>
@@ -95822,7 +95829,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -95839,7 +95846,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -95853,7 +95860,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -95867,7 +95874,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -95881,7 +95888,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>218</v>
       </c>
@@ -95895,7 +95902,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -95909,7 +95916,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -95923,7 +95930,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -95937,7 +95944,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -95951,7 +95958,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -95965,7 +95972,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>297</v>
       </c>
@@ -95976,7 +95983,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -95990,7 +95997,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>238</v>
       </c>
@@ -96004,7 +96011,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -96018,7 +96025,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -96032,7 +96039,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -96043,7 +96050,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -96057,7 +96064,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -96071,7 +96078,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -96085,7 +96092,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -96099,7 +96106,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -96113,7 +96120,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -96127,7 +96134,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -96141,7 +96148,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -96155,7 +96162,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -96169,7 +96176,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -96183,7 +96190,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -96197,7 +96204,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -96211,7 +96218,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -96225,7 +96232,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -96239,7 +96246,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -96253,7 +96260,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -96267,7 +96274,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -96281,7 +96288,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>476</v>
       </c>
@@ -96298,7 +96305,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>477</v>
       </c>
@@ -96315,7 +96322,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -96329,7 +96336,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -96343,7 +96350,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>259</v>
       </c>
@@ -96357,7 +96364,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -96371,7 +96378,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -96385,7 +96392,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -96399,7 +96406,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>479</v>
       </c>
@@ -96416,7 +96423,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>225</v>
       </c>
@@ -96430,7 +96437,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>480</v>
       </c>
@@ -96447,7 +96454,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -96461,7 +96468,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -96475,7 +96482,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -96489,7 +96496,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -96503,7 +96510,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -96517,7 +96524,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -96531,7 +96538,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>481</v>
       </c>
@@ -96548,7 +96555,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -96562,7 +96569,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -96576,7 +96583,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -96590,7 +96597,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>484</v>
       </c>
@@ -96607,7 +96614,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -96621,7 +96628,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -96635,7 +96642,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -96649,7 +96656,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>279</v>
       </c>
@@ -96663,7 +96670,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>280</v>
       </c>
@@ -96677,7 +96684,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>146</v>
       </c>
@@ -96691,7 +96698,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -96705,7 +96712,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>148</v>
       </c>
@@ -96719,7 +96726,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -96733,7 +96740,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -96747,7 +96754,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>217</v>
       </c>
@@ -96761,7 +96768,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -96775,7 +96782,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -96789,7 +96796,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>260</v>
       </c>
@@ -96803,7 +96810,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -96817,7 +96824,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>226</v>
       </c>
@@ -96831,7 +96838,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -96845,7 +96852,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>68</v>
       </c>
@@ -96859,7 +96866,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -96873,7 +96880,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>185</v>
       </c>
@@ -96887,7 +96894,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>227</v>
       </c>
@@ -96901,7 +96908,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>228</v>
       </c>
@@ -96915,7 +96922,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>91</v>
       </c>
@@ -96929,7 +96936,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>186</v>
       </c>
@@ -96943,7 +96950,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -96957,7 +96964,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -96971,7 +96978,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -96985,7 +96992,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>69</v>
       </c>
@@ -96999,7 +97006,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>92</v>
       </c>
@@ -97013,7 +97020,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -97027,7 +97034,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>70</v>
       </c>
@@ -97041,7 +97048,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>188</v>
       </c>
@@ -97055,7 +97062,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>189</v>
       </c>
@@ -97069,7 +97076,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>190</v>
       </c>
@@ -97083,7 +97090,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -97097,7 +97104,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>300</v>
       </c>
@@ -97108,7 +97115,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>486</v>
       </c>
@@ -97125,7 +97132,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -97139,7 +97146,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -97153,7 +97160,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -97167,7 +97174,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>191</v>
       </c>
@@ -97181,7 +97188,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -97195,7 +97202,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -97209,7 +97216,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>232</v>
       </c>
@@ -97223,7 +97230,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>487</v>
       </c>
@@ -97240,7 +97247,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>488</v>
       </c>
@@ -97254,7 +97261,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -97271,7 +97278,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>73</v>
       </c>
@@ -97288,7 +97295,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>74</v>
       </c>
@@ -97302,7 +97309,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>489</v>
       </c>
@@ -97316,7 +97323,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>490</v>
       </c>
@@ -97327,7 +97334,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>491</v>
       </c>
@@ -97341,7 +97348,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>492</v>
       </c>
@@ -97358,7 +97365,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>493</v>
       </c>
@@ -97372,7 +97379,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>494</v>
       </c>
@@ -97386,7 +97393,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>75</v>
       </c>
@@ -97400,7 +97407,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>495</v>
       </c>
@@ -97414,7 +97421,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>496</v>
       </c>
@@ -97425,7 +97432,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>497</v>
       </c>
@@ -97439,7 +97446,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>76</v>
       </c>
@@ -97456,7 +97463,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>77</v>
       </c>
@@ -97473,7 +97480,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -97490,7 +97497,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -97501,7 +97508,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -97512,7 +97519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -97526,7 +97533,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -97540,7 +97547,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -97554,7 +97561,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -97568,7 +97575,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -97582,7 +97589,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>263</v>
       </c>
@@ -97596,7 +97603,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -97610,7 +97617,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>80</v>
       </c>
@@ -97624,7 +97631,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>264</v>
       </c>
@@ -97638,7 +97645,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>510</v>
       </c>
@@ -97655,7 +97662,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>109</v>
       </c>
@@ -97669,7 +97676,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>512</v>
       </c>
@@ -97683,7 +97690,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -97697,7 +97704,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>82</v>
       </c>
@@ -97711,7 +97718,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>281</v>
       </c>
@@ -97725,7 +97732,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>236</v>
       </c>
@@ -97736,7 +97743,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>234</v>
       </c>
@@ -97750,7 +97757,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -97764,7 +97771,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>113</v>
       </c>
@@ -97778,7 +97785,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>250</v>
       </c>
@@ -97792,7 +97799,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>249</v>
       </c>
@@ -97806,7 +97813,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -97820,7 +97827,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>93</v>
       </c>
@@ -97834,7 +97841,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>151</v>
       </c>
@@ -97848,7 +97855,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>152</v>
       </c>
@@ -97862,7 +97869,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -97876,7 +97883,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -97890,7 +97897,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>125</v>
       </c>
@@ -97904,7 +97911,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -97918,7 +97925,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>43</v>
       </c>
@@ -97932,7 +97939,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -97946,7 +97953,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -97960,7 +97967,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -97974,7 +97981,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>44</v>
       </c>
@@ -97988,7 +97995,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -98002,7 +98009,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>154</v>
       </c>
@@ -98016,7 +98023,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>155</v>
       </c>
@@ -98030,7 +98037,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>156</v>
       </c>
@@ -98044,7 +98051,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>195</v>
       </c>
@@ -98058,7 +98065,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -98072,7 +98079,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>97</v>
       </c>
@@ -98086,7 +98093,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -98100,7 +98107,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>157</v>
       </c>
@@ -98114,7 +98121,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>158</v>
       </c>
@@ -98128,7 +98135,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>159</v>
       </c>
@@ -98142,7 +98149,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>265</v>
       </c>
@@ -98156,7 +98163,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>45</v>
       </c>
@@ -98170,7 +98177,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -98184,7 +98191,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -98198,7 +98205,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>161</v>
       </c>
@@ -98212,7 +98219,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>282</v>
       </c>
@@ -98226,7 +98233,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -98240,7 +98247,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>550</v>
       </c>
@@ -98251,7 +98258,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>294</v>
       </c>
@@ -98265,7 +98272,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>302</v>
       </c>
@@ -98276,7 +98283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -98290,7 +98297,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>197</v>
       </c>
@@ -98304,7 +98311,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -98318,7 +98325,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>162</v>
       </c>
@@ -98332,7 +98339,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>160</v>
       </c>
@@ -98343,7 +98350,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -98357,7 +98364,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>196</v>
       </c>
@@ -98371,7 +98378,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>163</v>
       </c>
@@ -98385,7 +98392,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>83</v>
       </c>
@@ -98402,7 +98409,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>164</v>
       </c>
@@ -98416,7 +98423,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -98430,7 +98437,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>283</v>
       </c>
@@ -98444,7 +98451,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>198</v>
       </c>
@@ -98458,7 +98465,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>199</v>
       </c>
@@ -98472,7 +98479,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -98486,7 +98493,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -98500,7 +98507,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>210</v>
       </c>
@@ -98514,7 +98521,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -98528,7 +98535,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -98542,7 +98549,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>127</v>
       </c>
@@ -98556,7 +98563,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>167</v>
       </c>
@@ -98570,7 +98577,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>230</v>
       </c>
@@ -98584,7 +98591,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -98598,7 +98605,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>284</v>
       </c>
@@ -98612,7 +98619,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -98626,7 +98633,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -98640,7 +98647,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>98</v>
       </c>
@@ -98654,7 +98661,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -98668,7 +98675,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>200</v>
       </c>
@@ -98682,7 +98689,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>201</v>
       </c>
@@ -98696,7 +98703,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>268</v>
       </c>
@@ -98710,7 +98717,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>168</v>
       </c>
@@ -98724,7 +98731,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -98738,7 +98745,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>169</v>
       </c>
@@ -98752,7 +98759,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>222</v>
       </c>
@@ -98766,7 +98773,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>202</v>
       </c>
@@ -98780,7 +98787,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -98794,7 +98801,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>52</v>
       </c>
@@ -98808,7 +98815,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -98822,7 +98829,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>54</v>
       </c>
@@ -98836,7 +98843,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>303</v>
       </c>
@@ -98850,7 +98857,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>593</v>
       </c>
@@ -98864,7 +98871,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>203</v>
       </c>
@@ -98878,7 +98885,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -98892,7 +98899,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>211</v>
       </c>
@@ -98906,7 +98913,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>292</v>
       </c>
@@ -98920,7 +98927,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -98934,7 +98941,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -98948,7 +98955,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>84</v>
       </c>
@@ -98965,7 +98972,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>128</v>
       </c>
@@ -98979,7 +98986,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>213</v>
       </c>
@@ -98993,7 +99000,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>170</v>
       </c>
@@ -99007,7 +99014,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>244</v>
       </c>
@@ -99021,7 +99028,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>245</v>
       </c>
@@ -99035,7 +99042,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>271</v>
       </c>
@@ -99049,7 +99056,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>104</v>
       </c>
@@ -99063,7 +99070,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>171</v>
       </c>
@@ -99077,7 +99084,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>247</v>
       </c>
@@ -99091,7 +99098,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>246</v>
       </c>
@@ -99105,7 +99112,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>55</v>
       </c>
@@ -99119,7 +99126,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>272</v>
       </c>
@@ -99133,7 +99140,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>273</v>
       </c>
@@ -99147,7 +99154,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -99161,7 +99168,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>114</v>
       </c>
@@ -99175,7 +99182,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>619</v>
       </c>
@@ -99192,7 +99199,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>204</v>
       </c>
@@ -99206,7 +99213,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -99220,7 +99227,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>105</v>
       </c>
@@ -99234,7 +99241,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -99245,7 +99252,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>85</v>
       </c>
@@ -99259,7 +99266,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -99270,7 +99277,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>172</v>
       </c>
@@ -99284,7 +99291,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>173</v>
       </c>
@@ -99298,7 +99305,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>286</v>
       </c>
@@ -99312,7 +99319,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>274</v>
       </c>
@@ -99326,7 +99333,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -99337,7 +99344,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -99351,7 +99358,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>275</v>
       </c>
@@ -99365,7 +99372,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>253</v>
       </c>
@@ -99379,7 +99386,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>252</v>
       </c>
@@ -99393,7 +99400,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>212</v>
       </c>
@@ -99407,7 +99414,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>231</v>
       </c>
@@ -99421,7 +99428,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>116</v>
       </c>
@@ -99435,7 +99442,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>119</v>
       </c>
@@ -99449,7 +99456,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>205</v>
       </c>
@@ -99463,7 +99470,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>174</v>
       </c>
@@ -99477,7 +99484,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>287</v>
       </c>
@@ -99491,7 +99498,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>288</v>
       </c>
@@ -99505,7 +99512,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>289</v>
       </c>
@@ -99519,7 +99526,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>86</v>
       </c>
@@ -99533,7 +99540,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>254</v>
       </c>
@@ -99547,7 +99554,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>175</v>
       </c>
@@ -99561,7 +99568,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>255</v>
       </c>
@@ -99575,7 +99582,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>176</v>
       </c>
@@ -99589,7 +99596,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>290</v>
       </c>
@@ -99603,7 +99610,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>291</v>
       </c>
@@ -99617,7 +99624,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>276</v>
       </c>
@@ -99631,7 +99638,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>106</v>
       </c>
@@ -99645,7 +99652,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>177</v>
       </c>
@@ -99659,7 +99666,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>107</v>
       </c>
@@ -99673,7 +99680,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>108</v>
       </c>
@@ -99687,7 +99694,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>129</v>
       </c>
@@ -99701,7 +99708,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>110</v>
       </c>
@@ -99715,7 +99722,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>57</v>
       </c>
@@ -99729,7 +99736,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -99743,7 +99750,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -99757,7 +99764,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>277</v>
       </c>
@@ -99771,7 +99778,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>178</v>
       </c>
@@ -99785,7 +99792,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>257</v>
       </c>
@@ -99799,7 +99806,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>256</v>
       </c>
@@ -99813,7 +99820,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>206</v>
       </c>
@@ -99827,7 +99834,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>207</v>
       </c>
@@ -99841,7 +99848,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>111</v>
       </c>
@@ -99855,7 +99862,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>208</v>
       </c>
@@ -99869,7 +99876,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -99883,7 +99890,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>61</v>
       </c>
@@ -99900,6 +99907,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -99907,21 +99919,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C90"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>983</v>
       </c>
@@ -99950,26 +99964,26 @@
         <v>991</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D3" t="s">
         <v>1076</v>
@@ -99984,15 +99998,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>993</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D4" t="s">
         <v>1076</v>
@@ -100007,15 +100021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D5" t="s">
         <v>1076</v>
@@ -100030,15 +100044,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D6" t="s">
         <v>1076</v>
@@ -100053,15 +100067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D7" t="s">
         <v>1076</v>
@@ -100076,15 +100090,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>997</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D8" t="s">
         <v>1076</v>
@@ -100099,15 +100113,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>998</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D9" t="s">
         <v>1076</v>
@@ -100122,15 +100136,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>999</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D10" t="s">
         <v>1076</v>
@@ -100145,15 +100159,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>1000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D11" t="s">
         <v>1076</v>
@@ -100168,15 +100182,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>1001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D12" t="s">
         <v>1076</v>
@@ -100191,15 +100205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>1002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D13" t="s">
         <v>1076</v>
@@ -100214,15 +100228,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>1003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D14" t="s">
         <v>1076</v>
@@ -100237,15 +100251,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>1004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D15" t="s">
         <v>1076</v>
@@ -100260,15 +100274,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>1005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D16" t="s">
         <v>1076</v>
@@ -100283,15 +100297,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D17" t="s">
         <v>1077</v>
@@ -100306,15 +100320,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>1006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D18" t="s">
         <v>1077</v>
@@ -100329,15 +100343,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>1007</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D19" t="s">
         <v>1077</v>
@@ -100352,15 +100366,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>1008</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D20" t="s">
         <v>1077</v>
@@ -100375,15 +100389,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>1009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D21" t="s">
         <v>1077</v>
@@ -100398,15 +100412,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>1010</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D22" t="s">
         <v>1077</v>
@@ -100421,15 +100435,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>1011</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D23" t="s">
         <v>1077</v>
@@ -100444,15 +100458,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>1012</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D24" t="s">
         <v>1077</v>
@@ -100467,15 +100481,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>1013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D25" t="s">
         <v>1077</v>
@@ -100490,15 +100504,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>1014</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D26" t="s">
         <v>1077</v>
@@ -100513,15 +100527,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>1015</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D27" t="s">
         <v>1077</v>
@@ -100536,15 +100550,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>1016</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D28" t="s">
         <v>1077</v>
@@ -100559,15 +100573,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>1017</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D29" t="s">
         <v>1077</v>
@@ -100582,15 +100596,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>1018</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D30" t="s">
         <v>1077</v>
@@ -100605,15 +100619,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>1019</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D31" t="s">
         <v>1077</v>
@@ -100628,15 +100642,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D32" t="s">
         <v>1078</v>
@@ -100651,15 +100665,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>1020</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D33" t="s">
         <v>1078</v>
@@ -100674,15 +100688,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>1021</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D34" t="s">
         <v>1078</v>
@@ -100697,15 +100711,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>1022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D35" t="s">
         <v>1078</v>
@@ -100720,15 +100734,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>1023</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D36" t="s">
         <v>1078</v>
@@ -100743,15 +100757,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>1024</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D37" t="s">
         <v>1078</v>
@@ -100766,15 +100780,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>1025</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D38" t="s">
         <v>1078</v>
@@ -100789,15 +100803,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>1026</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D39" t="s">
         <v>1078</v>
@@ -100812,15 +100826,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>1027</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D40" t="s">
         <v>1078</v>
@@ -100835,15 +100849,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>1028</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D41" t="s">
         <v>1078</v>
@@ -100858,15 +100872,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>1029</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D42" t="s">
         <v>1078</v>
@@ -100881,15 +100895,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>1030</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D43" t="s">
         <v>1078</v>
@@ -100904,15 +100918,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>1031</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D44" t="s">
         <v>1078</v>
@@ -100927,15 +100941,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>1032</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D45" t="s">
         <v>1078</v>
@@ -100950,15 +100964,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>1033</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D46" t="s">
         <v>1078</v>
@@ -100973,15 +100987,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D47" t="s">
         <v>1079</v>
@@ -100996,15 +101010,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>1034</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D48" t="s">
         <v>1079</v>
@@ -101019,15 +101033,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>1035</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D49" t="s">
         <v>1079</v>
@@ -101042,15 +101056,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>1036</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D50" t="s">
         <v>1079</v>
@@ -101065,15 +101079,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>1037</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D51" t="s">
         <v>1079</v>
@@ -101088,15 +101102,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>1038</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D52" t="s">
         <v>1079</v>
@@ -101111,15 +101125,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>1039</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D53" t="s">
         <v>1079</v>
@@ -101134,15 +101148,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>1040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D54" t="s">
         <v>1079</v>
@@ -101157,15 +101171,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>1041</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D55" t="s">
         <v>1079</v>
@@ -101180,15 +101194,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>1042</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D56" t="s">
         <v>1079</v>
@@ -101203,15 +101217,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>1043</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D57" t="s">
         <v>1079</v>
@@ -101226,15 +101240,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>1044</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D58" t="s">
         <v>1079</v>
@@ -101249,15 +101263,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>1045</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D59" t="s">
         <v>1079</v>
@@ -101272,15 +101286,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>1046</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D60" t="s">
         <v>1079</v>
@@ -101295,15 +101309,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>1047</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D61" t="s">
         <v>1079</v>
@@ -101318,15 +101332,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D62" t="s">
         <v>1080</v>
@@ -101341,15 +101355,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>1048</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D63" t="s">
         <v>1080</v>
@@ -101364,15 +101378,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>1049</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D64" t="s">
         <v>1080</v>
@@ -101387,15 +101401,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>1050</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D65" t="s">
         <v>1080</v>
@@ -101410,15 +101424,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>1051</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D66" t="s">
         <v>1080</v>
@@ -101433,15 +101447,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>1052</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D67" t="s">
         <v>1080</v>
@@ -101456,15 +101470,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>1053</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D68" t="s">
         <v>1080</v>
@@ -101479,15 +101493,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>1054</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D69" t="s">
         <v>1080</v>
@@ -101502,15 +101516,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>1055</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D70" t="s">
         <v>1080</v>
@@ -101525,15 +101539,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>1056</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D71" t="s">
         <v>1080</v>
@@ -101548,15 +101562,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>1057</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D72" t="s">
         <v>1080</v>
@@ -101571,15 +101585,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>1058</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D73" t="s">
         <v>1080</v>
@@ -101594,15 +101608,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>1059</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D74" t="s">
         <v>1080</v>
@@ -101617,15 +101631,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>1060</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D75" t="s">
         <v>1080</v>
@@ -101640,15 +101654,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>1061</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D76" t="s">
         <v>1080</v>
@@ -101663,15 +101677,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>1062</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D77" t="s">
         <v>1081</v>
@@ -101686,15 +101700,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>1063</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D78" t="s">
         <v>1081</v>
@@ -101709,15 +101723,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>1064</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D79" t="s">
         <v>1081</v>
@@ -101732,15 +101746,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>1065</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D80" t="s">
         <v>1081</v>
@@ -101755,15 +101769,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>1066</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D81" t="s">
         <v>1081</v>
@@ -101778,15 +101792,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>1067</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D82" t="s">
         <v>1081</v>
@@ -101801,15 +101815,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>1068</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D83" t="s">
         <v>1081</v>
@@ -101824,15 +101838,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>1069</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D84" t="s">
         <v>1081</v>
@@ -101847,15 +101861,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>1070</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D85" t="s">
         <v>1081</v>
@@ -101870,15 +101884,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>1071</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D86" t="s">
         <v>1081</v>
@@ -101893,15 +101907,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>1072</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D87" t="s">
         <v>1081</v>
@@ -101916,15 +101930,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>1073</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D88" t="s">
         <v>1081</v>
@@ -101939,15 +101953,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>1074</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D89" t="s">
         <v>1081</v>
@@ -101962,15 +101976,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>1075</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D90" t="s">
         <v>1081</v>
@@ -101985,31 +101999,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="C91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="C92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="C93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="C94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="C95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="F96" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/biosample/packages/ddbj_biosample_definition_table.xlsx
+++ b/docs/biosample/packages/ddbj_biosample_definition_table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\github\pub\docs\biosample\packages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13980" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6860" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="package-attribute" sheetId="8" r:id="rId1"/>
@@ -3563,282 +3563,281 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMS: metagenome/environmental, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: cultured bacteria/archaea, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: eukaryote, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIGS: virus, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: specimen, water; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, air; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, host-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-gut; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-oral; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-skin; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, human-vaginal; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, microbial; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, miscellaneous; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, plant-associated; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, sediment; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, soil; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, wastewater; version 1.0</t>
-  </si>
-  <si>
-    <t>MIMARKS: survey, water; version 1.0</t>
+    <t>Generic; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMS: metagenome/environmental, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: cultured bacteria/archaea, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: eukaryote, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIGS: virus, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: specimen, water; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, air; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, host-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-gut; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-oral; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-skin; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, human-vaginal; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, microbial; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, miscellaneous; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, plant-associated; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, sediment; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, soil; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, wastewater; version 1.1</t>
+  </si>
+  <si>
+    <t>MIMARKS: survey, water; version 1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4200,12 +4199,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.78515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:336" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:336" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1103</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>1100</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1101</v>
@@ -6225,7 +6224,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="3" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>992</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>1100</v>
       </c>
       <c r="G3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H3" t="s">
         <v>1101</v>
@@ -7235,7 +7234,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>993</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>1100</v>
       </c>
       <c r="G4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H4" t="s">
         <v>1101</v>
@@ -8245,7 +8244,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="5" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>994</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>1100</v>
       </c>
       <c r="G5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H5" t="s">
         <v>1101</v>
@@ -9255,7 +9254,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="6" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>995</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>1100</v>
       </c>
       <c r="G6" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H6" t="s">
         <v>1101</v>
@@ -10265,7 +10264,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="7" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>996</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>1100</v>
       </c>
       <c r="G7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H7" t="s">
         <v>1101</v>
@@ -11275,7 +11274,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="8" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>997</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>1100</v>
       </c>
       <c r="G8" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H8" t="s">
         <v>1101</v>
@@ -12285,7 +12284,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="9" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>998</v>
       </c>
@@ -12305,7 +12304,7 @@
         <v>1100</v>
       </c>
       <c r="G9" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H9" t="s">
         <v>1101</v>
@@ -13295,7 +13294,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="10" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>999</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>1100</v>
       </c>
       <c r="G10" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H10" t="s">
         <v>1101</v>
@@ -14305,7 +14304,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="11" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>1000</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>1100</v>
       </c>
       <c r="G11" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H11" t="s">
         <v>1101</v>
@@ -15315,7 +15314,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="12" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>1001</v>
       </c>
@@ -15335,7 +15334,7 @@
         <v>1100</v>
       </c>
       <c r="G12" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H12" t="s">
         <v>1101</v>
@@ -16325,7 +16324,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="13" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>1002</v>
       </c>
@@ -16345,7 +16344,7 @@
         <v>1100</v>
       </c>
       <c r="G13" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H13" t="s">
         <v>1101</v>
@@ -17335,7 +17334,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="14" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>1003</v>
       </c>
@@ -17355,7 +17354,7 @@
         <v>1100</v>
       </c>
       <c r="G14" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H14" t="s">
         <v>1101</v>
@@ -18345,7 +18344,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="15" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>1004</v>
       </c>
@@ -18365,7 +18364,7 @@
         <v>1100</v>
       </c>
       <c r="G15" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H15" t="s">
         <v>1101</v>
@@ -19355,7 +19354,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="16" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>1005</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>1100</v>
       </c>
       <c r="G16" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H16" t="s">
         <v>1101</v>
@@ -20365,7 +20364,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="17" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -20385,7 +20384,7 @@
         <v>1100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>1101</v>
@@ -21375,7 +21374,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="18" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>1006</v>
       </c>
@@ -21395,7 +21394,7 @@
         <v>1100</v>
       </c>
       <c r="G18" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H18" t="s">
         <v>1101</v>
@@ -22385,7 +22384,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="19" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>1007</v>
       </c>
@@ -22405,7 +22404,7 @@
         <v>1100</v>
       </c>
       <c r="G19" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H19" t="s">
         <v>1101</v>
@@ -23395,7 +23394,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="20" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>1008</v>
       </c>
@@ -23415,7 +23414,7 @@
         <v>1100</v>
       </c>
       <c r="G20" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H20" t="s">
         <v>1101</v>
@@ -24405,7 +24404,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="21" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>1009</v>
       </c>
@@ -24425,7 +24424,7 @@
         <v>1100</v>
       </c>
       <c r="G21" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H21" t="s">
         <v>1101</v>
@@ -25415,7 +25414,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="22" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>1010</v>
       </c>
@@ -25435,7 +25434,7 @@
         <v>1100</v>
       </c>
       <c r="G22" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H22" t="s">
         <v>1101</v>
@@ -26425,7 +26424,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="23" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>1011</v>
       </c>
@@ -26445,7 +26444,7 @@
         <v>1100</v>
       </c>
       <c r="G23" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H23" t="s">
         <v>1101</v>
@@ -27435,7 +27434,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="24" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>1012</v>
       </c>
@@ -27455,7 +27454,7 @@
         <v>1100</v>
       </c>
       <c r="G24" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H24" t="s">
         <v>1101</v>
@@ -28445,7 +28444,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>1013</v>
       </c>
@@ -28465,7 +28464,7 @@
         <v>1100</v>
       </c>
       <c r="G25" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H25" t="s">
         <v>1101</v>
@@ -29455,7 +29454,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="26" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>1014</v>
       </c>
@@ -29475,7 +29474,7 @@
         <v>1100</v>
       </c>
       <c r="G26" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H26" t="s">
         <v>1101</v>
@@ -30465,7 +30464,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="27" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>1015</v>
       </c>
@@ -30485,7 +30484,7 @@
         <v>1100</v>
       </c>
       <c r="G27" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H27" t="s">
         <v>1101</v>
@@ -31475,7 +31474,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="28" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>1016</v>
       </c>
@@ -31495,7 +31494,7 @@
         <v>1100</v>
       </c>
       <c r="G28" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H28" t="s">
         <v>1101</v>
@@ -32485,7 +32484,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="29" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>1017</v>
       </c>
@@ -32505,7 +32504,7 @@
         <v>1100</v>
       </c>
       <c r="G29" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H29" t="s">
         <v>1101</v>
@@ -33495,7 +33494,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="30" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>1018</v>
       </c>
@@ -33515,7 +33514,7 @@
         <v>1100</v>
       </c>
       <c r="G30" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H30" t="s">
         <v>1101</v>
@@ -34505,7 +34504,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="31" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>1019</v>
       </c>
@@ -34525,7 +34524,7 @@
         <v>1100</v>
       </c>
       <c r="G31" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H31" t="s">
         <v>1101</v>
@@ -35515,7 +35514,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="32" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -35535,7 +35534,7 @@
         <v>1100</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>1101</v>
@@ -36525,7 +36524,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="33" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>1020</v>
       </c>
@@ -36545,7 +36544,7 @@
         <v>1100</v>
       </c>
       <c r="G33" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H33" t="s">
         <v>1101</v>
@@ -37535,7 +37534,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="34" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>1021</v>
       </c>
@@ -37555,7 +37554,7 @@
         <v>1100</v>
       </c>
       <c r="G34" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H34" t="s">
         <v>1101</v>
@@ -38545,7 +38544,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="35" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>1022</v>
       </c>
@@ -38565,7 +38564,7 @@
         <v>1100</v>
       </c>
       <c r="G35" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H35" t="s">
         <v>1101</v>
@@ -39555,7 +39554,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="36" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>1023</v>
       </c>
@@ -39575,7 +39574,7 @@
         <v>1100</v>
       </c>
       <c r="G36" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H36" t="s">
         <v>1101</v>
@@ -40565,7 +40564,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="37" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>1024</v>
       </c>
@@ -40585,7 +40584,7 @@
         <v>1100</v>
       </c>
       <c r="G37" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H37" t="s">
         <v>1101</v>
@@ -41575,7 +41574,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="38" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>1025</v>
       </c>
@@ -41595,7 +41594,7 @@
         <v>1100</v>
       </c>
       <c r="G38" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H38" t="s">
         <v>1101</v>
@@ -42585,7 +42584,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="39" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>1026</v>
       </c>
@@ -42605,7 +42604,7 @@
         <v>1100</v>
       </c>
       <c r="G39" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H39" t="s">
         <v>1101</v>
@@ -43595,7 +43594,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="40" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>1027</v>
       </c>
@@ -43615,7 +43614,7 @@
         <v>1100</v>
       </c>
       <c r="G40" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H40" t="s">
         <v>1101</v>
@@ -44605,7 +44604,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="41" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>1028</v>
       </c>
@@ -44625,7 +44624,7 @@
         <v>1100</v>
       </c>
       <c r="G41" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H41" t="s">
         <v>1101</v>
@@ -45615,7 +45614,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="42" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>1029</v>
       </c>
@@ -45635,7 +45634,7 @@
         <v>1100</v>
       </c>
       <c r="G42" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H42" t="s">
         <v>1101</v>
@@ -46625,7 +46624,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="43" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>1030</v>
       </c>
@@ -46645,7 +46644,7 @@
         <v>1100</v>
       </c>
       <c r="G43" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H43" t="s">
         <v>1101</v>
@@ -47635,7 +47634,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="44" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>1031</v>
       </c>
@@ -47655,7 +47654,7 @@
         <v>1100</v>
       </c>
       <c r="G44" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H44" t="s">
         <v>1101</v>
@@ -48645,7 +48644,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="45" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>1032</v>
       </c>
@@ -48665,7 +48664,7 @@
         <v>1100</v>
       </c>
       <c r="G45" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H45" t="s">
         <v>1101</v>
@@ -49655,7 +49654,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="46" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>1033</v>
       </c>
@@ -49675,7 +49674,7 @@
         <v>1100</v>
       </c>
       <c r="G46" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H46" t="s">
         <v>1101</v>
@@ -50665,7 +50664,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="47" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -50685,7 +50684,7 @@
         <v>1100</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>1101</v>
@@ -51675,7 +51674,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="48" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>1034</v>
       </c>
@@ -51695,7 +51694,7 @@
         <v>1100</v>
       </c>
       <c r="G48" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H48" t="s">
         <v>1101</v>
@@ -52685,7 +52684,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="49" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>1035</v>
       </c>
@@ -52705,7 +52704,7 @@
         <v>1100</v>
       </c>
       <c r="G49" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H49" t="s">
         <v>1101</v>
@@ -53695,7 +53694,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="50" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>1036</v>
       </c>
@@ -53715,7 +53714,7 @@
         <v>1100</v>
       </c>
       <c r="G50" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H50" t="s">
         <v>1101</v>
@@ -54705,7 +54704,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="51" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>1037</v>
       </c>
@@ -54725,7 +54724,7 @@
         <v>1100</v>
       </c>
       <c r="G51" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H51" t="s">
         <v>1101</v>
@@ -55715,7 +55714,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="52" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>1038</v>
       </c>
@@ -55735,7 +55734,7 @@
         <v>1100</v>
       </c>
       <c r="G52" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H52" t="s">
         <v>1101</v>
@@ -56725,7 +56724,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="53" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>1039</v>
       </c>
@@ -56745,7 +56744,7 @@
         <v>1100</v>
       </c>
       <c r="G53" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H53" t="s">
         <v>1101</v>
@@ -57735,7 +57734,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="54" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>1040</v>
       </c>
@@ -57755,7 +57754,7 @@
         <v>1100</v>
       </c>
       <c r="G54" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H54" t="s">
         <v>1101</v>
@@ -58745,7 +58744,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="55" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>1041</v>
       </c>
@@ -58765,7 +58764,7 @@
         <v>1100</v>
       </c>
       <c r="G55" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H55" t="s">
         <v>1101</v>
@@ -59755,7 +59754,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="56" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>1042</v>
       </c>
@@ -59775,7 +59774,7 @@
         <v>1100</v>
       </c>
       <c r="G56" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H56" t="s">
         <v>1101</v>
@@ -60765,7 +60764,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="57" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>1043</v>
       </c>
@@ -60785,7 +60784,7 @@
         <v>1100</v>
       </c>
       <c r="G57" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H57" t="s">
         <v>1101</v>
@@ -61775,7 +61774,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="58" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>1044</v>
       </c>
@@ -61795,7 +61794,7 @@
         <v>1100</v>
       </c>
       <c r="G58" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H58" t="s">
         <v>1101</v>
@@ -62785,7 +62784,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="59" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>1045</v>
       </c>
@@ -62805,7 +62804,7 @@
         <v>1100</v>
       </c>
       <c r="G59" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H59" t="s">
         <v>1101</v>
@@ -63795,7 +63794,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="60" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>1046</v>
       </c>
@@ -63815,7 +63814,7 @@
         <v>1100</v>
       </c>
       <c r="G60" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H60" t="s">
         <v>1101</v>
@@ -64805,7 +64804,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="61" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>1047</v>
       </c>
@@ -64825,7 +64824,7 @@
         <v>1100</v>
       </c>
       <c r="G61" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H61" t="s">
         <v>1101</v>
@@ -65815,7 +65814,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="62" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
@@ -65835,7 +65834,7 @@
         <v>1100</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>1101</v>
@@ -66825,7 +66824,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="63" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>1048</v>
       </c>
@@ -66845,7 +66844,7 @@
         <v>1100</v>
       </c>
       <c r="G63" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H63" t="s">
         <v>1101</v>
@@ -67835,7 +67834,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="64" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>1049</v>
       </c>
@@ -67855,7 +67854,7 @@
         <v>1100</v>
       </c>
       <c r="G64" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H64" t="s">
         <v>1101</v>
@@ -68845,7 +68844,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="65" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>1050</v>
       </c>
@@ -68865,7 +68864,7 @@
         <v>1100</v>
       </c>
       <c r="G65" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H65" t="s">
         <v>1101</v>
@@ -69855,7 +69854,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="66" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>1051</v>
       </c>
@@ -69875,7 +69874,7 @@
         <v>1100</v>
       </c>
       <c r="G66" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H66" t="s">
         <v>1101</v>
@@ -70865,7 +70864,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="67" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>1052</v>
       </c>
@@ -70885,7 +70884,7 @@
         <v>1100</v>
       </c>
       <c r="G67" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H67" t="s">
         <v>1101</v>
@@ -71875,7 +71874,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="68" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>1053</v>
       </c>
@@ -71895,7 +71894,7 @@
         <v>1100</v>
       </c>
       <c r="G68" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H68" t="s">
         <v>1101</v>
@@ -72885,7 +72884,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="69" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>1054</v>
       </c>
@@ -72905,7 +72904,7 @@
         <v>1100</v>
       </c>
       <c r="G69" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H69" t="s">
         <v>1101</v>
@@ -73895,7 +73894,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="70" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>1055</v>
       </c>
@@ -73915,7 +73914,7 @@
         <v>1100</v>
       </c>
       <c r="G70" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H70" t="s">
         <v>1101</v>
@@ -74905,7 +74904,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="71" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>1056</v>
       </c>
@@ -74925,7 +74924,7 @@
         <v>1100</v>
       </c>
       <c r="G71" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H71" t="s">
         <v>1101</v>
@@ -75915,7 +75914,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="72" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>1057</v>
       </c>
@@ -75935,7 +75934,7 @@
         <v>1100</v>
       </c>
       <c r="G72" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H72" t="s">
         <v>1101</v>
@@ -76925,7 +76924,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="73" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>1058</v>
       </c>
@@ -76945,7 +76944,7 @@
         <v>1100</v>
       </c>
       <c r="G73" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H73" t="s">
         <v>1101</v>
@@ -77935,7 +77934,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="74" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>1059</v>
       </c>
@@ -77955,7 +77954,7 @@
         <v>1100</v>
       </c>
       <c r="G74" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H74" t="s">
         <v>1101</v>
@@ -78945,7 +78944,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="75" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>1060</v>
       </c>
@@ -78965,7 +78964,7 @@
         <v>1100</v>
       </c>
       <c r="G75" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H75" t="s">
         <v>1101</v>
@@ -79955,7 +79954,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="76" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>1061</v>
       </c>
@@ -79975,7 +79974,7 @@
         <v>1100</v>
       </c>
       <c r="G76" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H76" t="s">
         <v>1101</v>
@@ -80965,7 +80964,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="77" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>1062</v>
       </c>
@@ -80985,7 +80984,7 @@
         <v>1100</v>
       </c>
       <c r="G77" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H77" t="s">
         <v>1101</v>
@@ -81975,7 +81974,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="78" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>1063</v>
       </c>
@@ -81995,7 +81994,7 @@
         <v>1100</v>
       </c>
       <c r="G78" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H78" t="s">
         <v>1101</v>
@@ -82985,7 +82984,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="79" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>1064</v>
       </c>
@@ -83005,7 +83004,7 @@
         <v>1100</v>
       </c>
       <c r="G79" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H79" t="s">
         <v>1101</v>
@@ -83995,7 +83994,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="80" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>1065</v>
       </c>
@@ -84015,7 +84014,7 @@
         <v>1100</v>
       </c>
       <c r="G80" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H80" t="s">
         <v>1101</v>
@@ -85005,7 +85004,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="81" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>1066</v>
       </c>
@@ -85025,7 +85024,7 @@
         <v>1100</v>
       </c>
       <c r="G81" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H81" t="s">
         <v>1101</v>
@@ -86015,7 +86014,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="82" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>1067</v>
       </c>
@@ -86035,7 +86034,7 @@
         <v>1100</v>
       </c>
       <c r="G82" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H82" t="s">
         <v>1101</v>
@@ -87025,7 +87024,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="83" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>1068</v>
       </c>
@@ -87045,7 +87044,7 @@
         <v>1100</v>
       </c>
       <c r="G83" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H83" t="s">
         <v>1101</v>
@@ -88035,7 +88034,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="84" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>1069</v>
       </c>
@@ -88055,7 +88054,7 @@
         <v>1100</v>
       </c>
       <c r="G84" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H84" t="s">
         <v>1101</v>
@@ -89045,7 +89044,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="85" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>1070</v>
       </c>
@@ -89065,7 +89064,7 @@
         <v>1100</v>
       </c>
       <c r="G85" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H85" t="s">
         <v>1101</v>
@@ -90055,7 +90054,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="86" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>1071</v>
       </c>
@@ -90075,7 +90074,7 @@
         <v>1100</v>
       </c>
       <c r="G86" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H86" t="s">
         <v>1101</v>
@@ -91065,7 +91064,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="87" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>1072</v>
       </c>
@@ -91085,7 +91084,7 @@
         <v>1100</v>
       </c>
       <c r="G87" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H87" t="s">
         <v>1101</v>
@@ -92075,7 +92074,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="88" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>1073</v>
       </c>
@@ -92095,7 +92094,7 @@
         <v>1100</v>
       </c>
       <c r="G88" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H88" t="s">
         <v>1101</v>
@@ -93085,7 +93084,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="89" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>1074</v>
       </c>
@@ -93105,7 +93104,7 @@
         <v>1100</v>
       </c>
       <c r="G89" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H89" t="s">
         <v>1101</v>
@@ -94095,7 +94094,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="90" spans="1:336" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:336" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>1075</v>
       </c>
@@ -94115,7 +94114,7 @@
         <v>1100</v>
       </c>
       <c r="G90" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H90" t="s">
         <v>1101</v>
@@ -95118,15 +95117,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.78515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>942</v>
       </c>
@@ -95146,7 +95145,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>431</v>
       </c>
@@ -95160,7 +95159,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>432</v>
       </c>
@@ -95174,7 +95173,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -95188,7 +95187,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -95202,7 +95201,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>435</v>
       </c>
@@ -95216,7 +95215,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>436</v>
       </c>
@@ -95230,7 +95229,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -95244,7 +95243,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -95258,7 +95257,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -95272,7 +95271,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -95286,7 +95285,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -95300,7 +95299,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -95314,7 +95313,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>443</v>
       </c>
@@ -95328,7 +95327,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -95345,7 +95344,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>446</v>
       </c>
@@ -95362,7 +95361,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>447</v>
       </c>
@@ -95379,7 +95378,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>448</v>
       </c>
@@ -95396,7 +95395,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -95413,7 +95412,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -95430,7 +95429,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -95447,7 +95446,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -95464,7 +95463,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -95481,7 +95480,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -95498,7 +95497,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -95515,7 +95514,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -95532,7 +95531,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -95549,7 +95548,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -95563,7 +95562,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -95577,7 +95576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -95591,7 +95590,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -95608,7 +95607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>466</v>
       </c>
@@ -95625,7 +95624,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -95642,7 +95641,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -95656,7 +95655,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -95670,7 +95669,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -95684,7 +95683,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -95698,7 +95697,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -95712,7 +95711,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>469</v>
       </c>
@@ -95726,7 +95725,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -95740,7 +95739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -95754,7 +95753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>470</v>
       </c>
@@ -95771,7 +95770,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -95788,7 +95787,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>471</v>
       </c>
@@ -95805,7 +95804,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>472</v>
       </c>
@@ -95822,7 +95821,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -95839,7 +95838,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -95853,7 +95852,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -95867,7 +95866,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -95881,7 +95880,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>218</v>
       </c>
@@ -95895,7 +95894,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -95909,7 +95908,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -95923,7 +95922,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -95937,7 +95936,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -95951,7 +95950,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -95965,7 +95964,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>297</v>
       </c>
@@ -95976,7 +95975,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -95990,7 +95989,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>238</v>
       </c>
@@ -96004,7 +96003,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -96018,7 +96017,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -96032,7 +96031,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -96043,7 +96042,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -96057,7 +96056,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -96071,7 +96070,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -96085,7 +96084,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -96099,7 +96098,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -96113,7 +96112,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -96127,7 +96126,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -96141,7 +96140,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -96155,7 +96154,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -96169,7 +96168,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -96183,7 +96182,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -96197,7 +96196,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -96211,7 +96210,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -96225,7 +96224,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -96239,7 +96238,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -96253,7 +96252,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -96267,7 +96266,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -96281,7 +96280,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>476</v>
       </c>
@@ -96298,7 +96297,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>477</v>
       </c>
@@ -96315,7 +96314,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -96329,7 +96328,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -96343,7 +96342,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>259</v>
       </c>
@@ -96357,7 +96356,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -96371,7 +96370,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -96385,7 +96384,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -96399,7 +96398,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>479</v>
       </c>
@@ -96416,7 +96415,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>225</v>
       </c>
@@ -96430,7 +96429,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>480</v>
       </c>
@@ -96447,7 +96446,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -96461,7 +96460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -96475,7 +96474,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -96489,7 +96488,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -96503,7 +96502,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -96517,7 +96516,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -96531,7 +96530,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>481</v>
       </c>
@@ -96548,7 +96547,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -96562,7 +96561,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>142</v>
       </c>
@@ -96576,7 +96575,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -96590,7 +96589,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>484</v>
       </c>
@@ -96607,7 +96606,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -96621,7 +96620,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -96635,7 +96634,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -96649,7 +96648,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A104" t="s">
         <v>279</v>
       </c>
@@ -96663,7 +96662,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
         <v>280</v>
       </c>
@@ -96677,7 +96676,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
         <v>146</v>
       </c>
@@ -96691,7 +96690,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -96705,7 +96704,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
         <v>148</v>
       </c>
@@ -96719,7 +96718,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -96733,7 +96732,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -96747,7 +96746,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A111" t="s">
         <v>217</v>
       </c>
@@ -96761,7 +96760,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -96775,7 +96774,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -96789,7 +96788,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
         <v>260</v>
       </c>
@@ -96803,7 +96802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -96817,7 +96816,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
         <v>226</v>
       </c>
@@ -96831,7 +96830,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
         <v>223</v>
       </c>
@@ -96845,7 +96844,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
         <v>68</v>
       </c>
@@ -96859,7 +96858,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -96873,7 +96872,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
         <v>185</v>
       </c>
@@ -96887,7 +96886,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
         <v>227</v>
       </c>
@@ -96901,7 +96900,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
         <v>228</v>
       </c>
@@ -96915,7 +96914,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
         <v>91</v>
       </c>
@@ -96929,7 +96928,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
         <v>186</v>
       </c>
@@ -96943,7 +96942,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -96957,7 +96956,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -96971,7 +96970,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A127" t="s">
         <v>112</v>
       </c>
@@ -96985,7 +96984,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A128" t="s">
         <v>69</v>
       </c>
@@ -96999,7 +96998,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A129" t="s">
         <v>92</v>
       </c>
@@ -97013,7 +97012,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -97027,7 +97026,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A131" t="s">
         <v>70</v>
       </c>
@@ -97041,7 +97040,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A132" t="s">
         <v>188</v>
       </c>
@@ -97055,7 +97054,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
         <v>189</v>
       </c>
@@ -97069,7 +97068,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
         <v>190</v>
       </c>
@@ -97083,7 +97082,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -97097,7 +97096,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
         <v>300</v>
       </c>
@@ -97108,7 +97107,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
         <v>486</v>
       </c>
@@ -97125,7 +97124,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -97139,7 +97138,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -97153,7 +97152,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -97167,7 +97166,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A141" t="s">
         <v>191</v>
       </c>
@@ -97181,7 +97180,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -97195,7 +97194,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -97209,7 +97208,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A144" t="s">
         <v>232</v>
       </c>
@@ -97223,7 +97222,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
         <v>487</v>
       </c>
@@ -97240,7 +97239,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
         <v>488</v>
       </c>
@@ -97254,7 +97253,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -97271,7 +97270,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
         <v>73</v>
       </c>
@@ -97288,7 +97287,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
         <v>74</v>
       </c>
@@ -97302,7 +97301,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A150" t="s">
         <v>489</v>
       </c>
@@ -97316,7 +97315,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A151" t="s">
         <v>490</v>
       </c>
@@ -97327,7 +97326,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A152" t="s">
         <v>491</v>
       </c>
@@ -97341,7 +97340,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A153" t="s">
         <v>492</v>
       </c>
@@ -97358,7 +97357,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A154" t="s">
         <v>493</v>
       </c>
@@ -97372,7 +97371,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A155" t="s">
         <v>494</v>
       </c>
@@ -97386,7 +97385,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A156" t="s">
         <v>75</v>
       </c>
@@ -97400,7 +97399,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A157" t="s">
         <v>495</v>
       </c>
@@ -97414,7 +97413,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A158" t="s">
         <v>496</v>
       </c>
@@ -97425,7 +97424,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
         <v>497</v>
       </c>
@@ -97439,7 +97438,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
         <v>76</v>
       </c>
@@ -97456,7 +97455,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
         <v>77</v>
       </c>
@@ -97473,7 +97472,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -97490,7 +97489,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -97501,7 +97500,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -97512,7 +97511,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -97526,7 +97525,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -97540,7 +97539,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A167" t="s">
         <v>124</v>
       </c>
@@ -97554,7 +97553,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -97568,7 +97567,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -97582,7 +97581,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A170" t="s">
         <v>263</v>
       </c>
@@ -97596,7 +97595,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A171" t="s">
         <v>79</v>
       </c>
@@ -97610,7 +97609,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A172" t="s">
         <v>80</v>
       </c>
@@ -97624,7 +97623,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A173" t="s">
         <v>264</v>
       </c>
@@ -97638,7 +97637,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A174" t="s">
         <v>510</v>
       </c>
@@ -97655,7 +97654,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A175" t="s">
         <v>109</v>
       </c>
@@ -97669,7 +97668,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A176" t="s">
         <v>512</v>
       </c>
@@ -97683,7 +97682,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -97697,7 +97696,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
         <v>82</v>
       </c>
@@ -97711,7 +97710,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
         <v>281</v>
       </c>
@@ -97725,7 +97724,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
         <v>236</v>
       </c>
@@ -97736,7 +97735,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A181" t="s">
         <v>234</v>
       </c>
@@ -97750,7 +97749,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -97764,7 +97763,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A183" t="s">
         <v>113</v>
       </c>
@@ -97778,7 +97777,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A184" t="s">
         <v>250</v>
       </c>
@@ -97792,7 +97791,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A185" t="s">
         <v>249</v>
       </c>
@@ -97806,7 +97805,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -97820,7 +97819,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A187" t="s">
         <v>93</v>
       </c>
@@ -97834,7 +97833,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
         <v>151</v>
       </c>
@@ -97848,7 +97847,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A189" t="s">
         <v>152</v>
       </c>
@@ -97862,7 +97861,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -97876,7 +97875,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A191" t="s">
         <v>100</v>
       </c>
@@ -97890,7 +97889,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A192" t="s">
         <v>125</v>
       </c>
@@ -97904,7 +97903,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -97918,7 +97917,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A194" t="s">
         <v>43</v>
       </c>
@@ -97932,7 +97931,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A195" t="s">
         <v>240</v>
       </c>
@@ -97946,7 +97945,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -97960,7 +97959,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -97974,7 +97973,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
         <v>44</v>
       </c>
@@ -97988,7 +97987,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -98002,7 +98001,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
         <v>154</v>
       </c>
@@ -98016,7 +98015,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A201" t="s">
         <v>155</v>
       </c>
@@ -98030,7 +98029,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A202" t="s">
         <v>156</v>
       </c>
@@ -98044,7 +98043,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A203" t="s">
         <v>195</v>
       </c>
@@ -98058,7 +98057,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -98072,7 +98071,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A205" t="s">
         <v>97</v>
       </c>
@@ -98086,7 +98085,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
         <v>101</v>
       </c>
@@ -98100,7 +98099,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A207" t="s">
         <v>157</v>
       </c>
@@ -98114,7 +98113,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A208" t="s">
         <v>158</v>
       </c>
@@ -98128,7 +98127,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A209" t="s">
         <v>159</v>
       </c>
@@ -98142,7 +98141,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A210" t="s">
         <v>265</v>
       </c>
@@ -98156,7 +98155,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A211" t="s">
         <v>45</v>
       </c>
@@ -98170,7 +98169,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -98184,7 +98183,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -98198,7 +98197,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A214" t="s">
         <v>161</v>
       </c>
@@ -98212,7 +98211,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A215" t="s">
         <v>282</v>
       </c>
@@ -98226,7 +98225,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -98240,7 +98239,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A217" t="s">
         <v>550</v>
       </c>
@@ -98251,7 +98250,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A218" t="s">
         <v>294</v>
       </c>
@@ -98265,7 +98264,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A219" t="s">
         <v>302</v>
       </c>
@@ -98276,7 +98275,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -98290,7 +98289,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A221" t="s">
         <v>197</v>
       </c>
@@ -98304,7 +98303,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -98318,7 +98317,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A223" t="s">
         <v>162</v>
       </c>
@@ -98332,7 +98331,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A224" t="s">
         <v>160</v>
       </c>
@@ -98343,7 +98342,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -98357,7 +98356,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A226" t="s">
         <v>196</v>
       </c>
@@ -98371,7 +98370,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A227" t="s">
         <v>163</v>
       </c>
@@ -98385,7 +98384,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A228" t="s">
         <v>83</v>
       </c>
@@ -98402,7 +98401,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A229" t="s">
         <v>164</v>
       </c>
@@ -98416,7 +98415,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -98430,7 +98429,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A231" t="s">
         <v>283</v>
       </c>
@@ -98444,7 +98443,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A232" t="s">
         <v>198</v>
       </c>
@@ -98458,7 +98457,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A233" t="s">
         <v>199</v>
       </c>
@@ -98472,7 +98471,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -98486,7 +98485,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -98500,7 +98499,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A236" t="s">
         <v>210</v>
       </c>
@@ -98514,7 +98513,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A237" t="s">
         <v>166</v>
       </c>
@@ -98528,7 +98527,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -98542,7 +98541,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A239" t="s">
         <v>127</v>
       </c>
@@ -98556,7 +98555,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A240" t="s">
         <v>167</v>
       </c>
@@ -98570,7 +98569,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A241" t="s">
         <v>230</v>
       </c>
@@ -98584,7 +98583,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A242" t="s">
         <v>229</v>
       </c>
@@ -98598,7 +98597,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A243" t="s">
         <v>284</v>
       </c>
@@ -98612,7 +98611,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -98626,7 +98625,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -98640,7 +98639,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A246" t="s">
         <v>98</v>
       </c>
@@ -98654,7 +98653,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -98668,7 +98667,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A248" t="s">
         <v>200</v>
       </c>
@@ -98682,7 +98681,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A249" t="s">
         <v>201</v>
       </c>
@@ -98696,7 +98695,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A250" t="s">
         <v>268</v>
       </c>
@@ -98710,7 +98709,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A251" t="s">
         <v>168</v>
       </c>
@@ -98724,7 +98723,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -98738,7 +98737,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A253" t="s">
         <v>169</v>
       </c>
@@ -98752,7 +98751,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A254" t="s">
         <v>222</v>
       </c>
@@ -98766,7 +98765,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A255" t="s">
         <v>202</v>
       </c>
@@ -98780,7 +98779,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -98794,7 +98793,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A257" t="s">
         <v>52</v>
       </c>
@@ -98808,7 +98807,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A258" t="s">
         <v>53</v>
       </c>
@@ -98822,7 +98821,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A259" t="s">
         <v>54</v>
       </c>
@@ -98836,7 +98835,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A260" t="s">
         <v>303</v>
       </c>
@@ -98850,7 +98849,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A261" t="s">
         <v>593</v>
       </c>
@@ -98864,7 +98863,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A262" t="s">
         <v>203</v>
       </c>
@@ -98878,7 +98877,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -98892,7 +98891,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A264" t="s">
         <v>211</v>
       </c>
@@ -98906,7 +98905,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A265" t="s">
         <v>292</v>
       </c>
@@ -98920,7 +98919,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A266" t="s">
         <v>293</v>
       </c>
@@ -98934,7 +98933,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -98948,7 +98947,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A268" t="s">
         <v>84</v>
       </c>
@@ -98965,7 +98964,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A269" t="s">
         <v>128</v>
       </c>
@@ -98979,7 +98978,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A270" t="s">
         <v>213</v>
       </c>
@@ -98993,7 +98992,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A271" t="s">
         <v>170</v>
       </c>
@@ -99007,7 +99006,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A272" t="s">
         <v>244</v>
       </c>
@@ -99021,7 +99020,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A273" t="s">
         <v>245</v>
       </c>
@@ -99035,7 +99034,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A274" t="s">
         <v>271</v>
       </c>
@@ -99049,7 +99048,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A275" t="s">
         <v>104</v>
       </c>
@@ -99063,7 +99062,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A276" t="s">
         <v>171</v>
       </c>
@@ -99077,7 +99076,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A277" t="s">
         <v>247</v>
       </c>
@@ -99091,7 +99090,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A278" t="s">
         <v>246</v>
       </c>
@@ -99105,7 +99104,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A279" t="s">
         <v>55</v>
       </c>
@@ -99119,7 +99118,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A280" t="s">
         <v>272</v>
       </c>
@@ -99133,7 +99132,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A281" t="s">
         <v>273</v>
       </c>
@@ -99147,7 +99146,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -99161,7 +99160,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A283" t="s">
         <v>114</v>
       </c>
@@ -99175,7 +99174,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A284" t="s">
         <v>619</v>
       </c>
@@ -99192,7 +99191,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A285" t="s">
         <v>204</v>
       </c>
@@ -99206,7 +99205,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A286" t="s">
         <v>251</v>
       </c>
@@ -99220,7 +99219,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A287" t="s">
         <v>105</v>
       </c>
@@ -99234,7 +99233,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -99245,7 +99244,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A289" t="s">
         <v>85</v>
       </c>
@@ -99259,7 +99258,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -99270,7 +99269,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A291" t="s">
         <v>172</v>
       </c>
@@ -99284,7 +99283,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A292" t="s">
         <v>173</v>
       </c>
@@ -99298,7 +99297,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A293" t="s">
         <v>286</v>
       </c>
@@ -99312,7 +99311,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A294" t="s">
         <v>274</v>
       </c>
@@ -99326,7 +99325,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -99337,7 +99336,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A296" t="s">
         <v>56</v>
       </c>
@@ -99351,7 +99350,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A297" t="s">
         <v>275</v>
       </c>
@@ -99365,7 +99364,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A298" t="s">
         <v>253</v>
       </c>
@@ -99379,7 +99378,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A299" t="s">
         <v>252</v>
       </c>
@@ -99393,7 +99392,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A300" t="s">
         <v>212</v>
       </c>
@@ -99407,7 +99406,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A301" t="s">
         <v>231</v>
       </c>
@@ -99421,7 +99420,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A302" t="s">
         <v>116</v>
       </c>
@@ -99435,7 +99434,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A303" t="s">
         <v>119</v>
       </c>
@@ -99449,7 +99448,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A304" t="s">
         <v>205</v>
       </c>
@@ -99463,7 +99462,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A305" t="s">
         <v>174</v>
       </c>
@@ -99477,7 +99476,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A306" t="s">
         <v>287</v>
       </c>
@@ -99491,7 +99490,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A307" t="s">
         <v>288</v>
       </c>
@@ -99505,7 +99504,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A308" t="s">
         <v>289</v>
       </c>
@@ -99519,7 +99518,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A309" t="s">
         <v>86</v>
       </c>
@@ -99533,7 +99532,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A310" t="s">
         <v>254</v>
       </c>
@@ -99547,7 +99546,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A311" t="s">
         <v>175</v>
       </c>
@@ -99561,7 +99560,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A312" t="s">
         <v>255</v>
       </c>
@@ -99575,7 +99574,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A313" t="s">
         <v>176</v>
       </c>
@@ -99589,7 +99588,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A314" t="s">
         <v>290</v>
       </c>
@@ -99603,7 +99602,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A315" t="s">
         <v>291</v>
       </c>
@@ -99617,7 +99616,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A316" t="s">
         <v>276</v>
       </c>
@@ -99631,7 +99630,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A317" t="s">
         <v>106</v>
       </c>
@@ -99645,7 +99644,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A318" t="s">
         <v>177</v>
       </c>
@@ -99659,7 +99658,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A319" t="s">
         <v>107</v>
       </c>
@@ -99673,7 +99672,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A320" t="s">
         <v>108</v>
       </c>
@@ -99687,7 +99686,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A321" t="s">
         <v>129</v>
       </c>
@@ -99701,7 +99700,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A322" t="s">
         <v>110</v>
       </c>
@@ -99715,7 +99714,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A323" t="s">
         <v>57</v>
       </c>
@@ -99729,7 +99728,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A324" t="s">
         <v>58</v>
       </c>
@@ -99743,7 +99742,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A325" t="s">
         <v>59</v>
       </c>
@@ -99757,7 +99756,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A326" t="s">
         <v>277</v>
       </c>
@@ -99771,7 +99770,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A327" t="s">
         <v>178</v>
       </c>
@@ -99785,7 +99784,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A328" t="s">
         <v>257</v>
       </c>
@@ -99799,7 +99798,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A329" t="s">
         <v>256</v>
       </c>
@@ -99813,7 +99812,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A330" t="s">
         <v>206</v>
       </c>
@@ -99827,7 +99826,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A331" t="s">
         <v>207</v>
       </c>
@@ -99841,7 +99840,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A332" t="s">
         <v>111</v>
       </c>
@@ -99855,7 +99854,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A333" t="s">
         <v>208</v>
       </c>
@@ -99869,7 +99868,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -99883,7 +99882,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A335" t="s">
         <v>61</v>
       </c>
@@ -99909,19 +99908,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.2109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>983</v>
       </c>
@@ -99950,23 +99949,23 @@
         <v>991</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C2" t="s">
         <v>1105</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>992</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1106</v>
@@ -99984,12 +99983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>993</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1107</v>
@@ -100007,12 +100006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>994</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1108</v>
@@ -100030,12 +100029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>995</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1109</v>
@@ -100053,12 +100052,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>996</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1110</v>
@@ -100076,12 +100075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>997</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1111</v>
@@ -100099,12 +100098,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>998</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1112</v>
@@ -100122,12 +100121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>999</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1113</v>
@@ -100145,12 +100144,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1000</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1114</v>
@@ -100168,12 +100167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1115</v>
@@ -100191,12 +100190,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1002</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>1116</v>
@@ -100214,12 +100213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1003</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1117</v>
@@ -100237,12 +100236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1004</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1118</v>
@@ -100260,12 +100259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1119</v>
@@ -100283,12 +100282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1120</v>
@@ -100306,12 +100305,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1121</v>
@@ -100329,12 +100328,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1007</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1122</v>
@@ -100352,12 +100351,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1008</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1123</v>
@@ -100375,12 +100374,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1009</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>1124</v>
@@ -100398,12 +100397,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1010</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1125</v>
@@ -100421,12 +100420,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1011</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>1126</v>
@@ -100444,12 +100443,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1012</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1127</v>
@@ -100467,12 +100466,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1013</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>1128</v>
@@ -100490,12 +100489,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1014</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1129</v>
@@ -100513,12 +100512,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1015</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1130</v>
@@ -100536,12 +100535,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1016</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>1131</v>
@@ -100559,12 +100558,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1017</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1132</v>
@@ -100582,12 +100581,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1018</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1133</v>
@@ -100605,12 +100604,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1019</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>1134</v>
@@ -100628,12 +100627,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>1135</v>
@@ -100651,12 +100650,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1020</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>1136</v>
@@ -100674,12 +100673,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1021</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1137</v>
@@ -100697,12 +100696,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>1138</v>
@@ -100720,12 +100719,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1023</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>1139</v>
@@ -100743,12 +100742,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1024</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>1140</v>
@@ -100766,12 +100765,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1025</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1141</v>
@@ -100789,12 +100788,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1026</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>1142</v>
@@ -100812,12 +100811,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1027</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1143</v>
@@ -100835,12 +100834,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1028</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1144</v>
@@ -100858,12 +100857,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1029</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1145</v>
@@ -100881,12 +100880,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1030</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>1146</v>
@@ -100904,12 +100903,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1031</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1147</v>
@@ -100927,12 +100926,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1032</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>1148</v>
@@ -100950,12 +100949,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1033</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1149</v>
@@ -100973,12 +100972,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1150</v>
@@ -100996,12 +100995,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1034</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1151</v>
@@ -101019,12 +101018,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1035</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>1152</v>
@@ -101042,12 +101041,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1036</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1153</v>
@@ -101065,12 +101064,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1037</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1154</v>
@@ -101088,12 +101087,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1038</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1155</v>
@@ -101111,12 +101110,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1039</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1156</v>
@@ -101134,12 +101133,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1040</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1157</v>
@@ -101157,12 +101156,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1041</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1158</v>
@@ -101180,12 +101179,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1042</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1159</v>
@@ -101203,12 +101202,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1043</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>1160</v>
@@ -101226,12 +101225,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1044</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>1161</v>
@@ -101249,12 +101248,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1045</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>1162</v>
@@ -101272,12 +101271,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1046</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>1163</v>
@@ -101295,12 +101294,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1047</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1164</v>
@@ -101318,12 +101317,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>1165</v>
@@ -101341,12 +101340,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1048</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>1166</v>
@@ -101364,12 +101363,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1049</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1167</v>
@@ -101387,12 +101386,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1050</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>1168</v>
@@ -101410,12 +101409,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1051</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1169</v>
@@ -101433,12 +101432,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1052</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>1170</v>
@@ -101456,12 +101455,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1053</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1171</v>
@@ -101479,12 +101478,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1054</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>1172</v>
@@ -101502,12 +101501,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1055</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>1173</v>
@@ -101525,12 +101524,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1056</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>1174</v>
@@ -101548,12 +101547,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1057</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>1175</v>
@@ -101571,12 +101570,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1058</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>1176</v>
@@ -101594,12 +101593,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1059</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>1177</v>
@@ -101617,12 +101616,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1060</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1178</v>
@@ -101640,12 +101639,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1061</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>1179</v>
@@ -101663,12 +101662,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1062</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>1180</v>
@@ -101686,12 +101685,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1063</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>1181</v>
@@ -101709,12 +101708,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1064</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>1182</v>
@@ -101732,12 +101731,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1065</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>1183</v>
@@ -101755,12 +101754,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1066</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>1184</v>
@@ -101778,12 +101777,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1067</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>1185</v>
@@ -101801,12 +101800,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1068</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>1186</v>
@@ -101824,12 +101823,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1069</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>1187</v>
@@ -101847,12 +101846,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1070</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>1188</v>
@@ -101870,12 +101869,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1071</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1189</v>
@@ -101893,12 +101892,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1072</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>1190</v>
@@ -101916,12 +101915,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1073</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>1191</v>
@@ -101939,12 +101938,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1074</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1192</v>
@@ -101962,12 +101961,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1075</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>1193</v>
@@ -101985,27 +101984,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F96" s="3"/>
     </row>
   </sheetData>
